--- a/Project Docments/P5 Chat Room WBS.xlsx
+++ b/Project Docments/P5 Chat Room WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bsd405-my.sharepoint.com/personal/s-knotwella_bsd405_org/Documents/! WBS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="600" documentId="11_F25DC773A252ABDACC1048FB891A7B605BDE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E7799EA-04A9-4196-990D-D5AB9CAC7034}"/>
+  <xr:revisionPtr revIDLastSave="636" documentId="11_F25DC773A252ABDACC1048FB891A7B605BDE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA0415D7-B3F5-4DDE-964F-A922DC648EB5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -588,6 +588,36 @@
   </si>
   <si>
     <t>Added specs to repo</t>
+  </si>
+  <si>
+    <t>Connect 4</t>
+  </si>
+  <si>
+    <t>Set up Connect 4 in test file.</t>
+  </si>
+  <si>
+    <t>Drawing Connect 4 board when game is started between 2 players.</t>
+  </si>
+  <si>
+    <t>Mingames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect 4 </t>
+  </si>
+  <si>
+    <t>Setting up buttons on each row of connect 4 board.</t>
+  </si>
+  <si>
+    <t>Drawing/Updating board based on 2d array.</t>
+  </si>
+  <si>
+    <t>WRiting logic for 2d array, how it should be updated based on its current values</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Made the username input and chat more user friendly.</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K127" sqref="K127"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3399,6 +3429,126 @@
         <v>182</v>
       </c>
     </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" t="s">
+        <v>183</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30.75">
+      <c r="A133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>20</v>
+      </c>
+      <c r="E133" t="s">
+        <v>81</v>
+      </c>
+      <c r="F133" t="s">
+        <v>183</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30.75">
+      <c r="A134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+      <c r="E134" t="s">
+        <v>186</v>
+      </c>
+      <c r="F134" t="s">
+        <v>187</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>81</v>
+      </c>
+      <c r="F135" t="s">
+        <v>187</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30.75">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>81</v>
+      </c>
+      <c r="F136" t="s">
+        <v>187</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30.75">
+      <c r="A137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" t="s">
+        <v>191</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
